--- a/Elin_GunSmith/data/resource/tables/add_datas.xlsx
+++ b/Elin_GunSmith/data/resource/tables/add_datas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -65,6 +65,14 @@
   </si>
   <si>
     <t>mod_ranged,#ranged</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Ex_ModCombine</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>mod_ranged</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -845,8 +853,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -900,8 +908,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -955,8 +963,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1010,8 +1018,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1065,8 +1073,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1120,8 +1128,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1436,7 +1444,7 @@
   <dimension ref="A1:BQ117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5"/>
@@ -1449,7 +1457,8 @@
     <col min="6" max="6" width="5.25" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="6.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.75" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="30" width="10.125" style="4"/>
     <col min="31" max="69" width="10.125" style="6"/>
@@ -1588,14 +1597,32 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
     </row>
-    <row r="5" spans="1:29">
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:29" ht="27">
+      <c r="A5" s="4">
+        <v>100001</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>

--- a/Elin_GunSmith/data/resource/tables/add_datas.xlsx
+++ b/Elin_GunSmith/data/resource/tables/add_datas.xlsx
@@ -64,15 +64,15 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>mod_ranged,#ranged</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>Ex_ModCombine</t>
     <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>mod_ranged</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>mod_ranged,#ranged,sword_zephir,pole_gunlance</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:BQ117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5"/>
@@ -1552,7 +1552,7 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
     </row>
-    <row r="4" spans="1:29" ht="27">
+    <row r="4" spans="1:29" ht="40.5">
       <c r="A4" s="4">
         <v>100000</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1597,12 +1597,12 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
     </row>
-    <row r="5" spans="1:29" ht="27">
+    <row r="5" spans="1:29">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -1618,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
